--- a/Data/Manually_cleaned_data/Final Demographics.xlsx
+++ b/Data/Manually_cleaned_data/Final Demographics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita.Gaponiuk\Desktop\Statec Hackathon\Data\Demographics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita.Gaponiuk\Desktop\Statec Hackathon\STATEC-Hackathon\Data\Manually_cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B5224-B84A-4D07-A613-EED8F5748A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373C7BE-D325-47A2-98B5-CF8106ABBE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>1999_dummy</t>
   </si>
   <si>
-    <t>Reference_amount</t>
-  </si>
-  <si>
     <t>Benefits</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Contribution_rate</t>
+  </si>
+  <si>
+    <t>Reference_amount_1984</t>
   </si>
 </sst>
 </file>
@@ -97,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="189" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,53 +420,53 @@
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -598,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -607,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
